--- a/DBMS/통합 문서 1.xlsx
+++ b/DBMS/통합 문서 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Sports_Project\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3128B501-0F3B-49E2-B4A3-37911DE2184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8670" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="검색" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
   <si>
     <t>광주 서구 풍암동 396-19</t>
   </si>
@@ -286,9 +287,6 @@
     <t>동구다목적체육관</t>
   </si>
   <si>
-    <t>인라인스케이트장</t>
-  </si>
-  <si>
     <t>첨단 전천후게이트볼장</t>
   </si>
   <si>
@@ -548,10 +546,6 @@
     <t>062-604-2612</t>
   </si>
   <si>
-    <t>풍영체육시설단지 
-정구장</t>
-  </si>
-  <si>
     <t>광주여대시립유니버시아드체육관</t>
   </si>
   <si>
@@ -864,9 +858,6 @@
   </si>
   <si>
     <t>광주광역시 서구 광천동 746-1</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 금화로 240</t>
   </si>
   <si>
     <t>광주광역시 서구 쌍촌동 927-12</t>
@@ -1415,59 +1406,152 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>평일 - 3500, 주말 - 6900</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>하절기(3월~11월) : 05:30 ~ 24:00
 동절기(12월~2월) : 05:30 ~ 23:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>평일(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+    <t>평일 06:00~21:00 </t>
+  </si>
+  <si>
+    <t>평일 주(20,000), 야(30,000), 주말 주(30,000), 야(39,000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 종목별 연합회에 사전 문의 후 사용가능</t>
+  </si>
+  <si>
+    <t>http://www.gotaketeam.com/</t>
+  </si>
+  <si>
+    <t>월요일 휴무</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 서구 화정로 179번길 62</t>
+  </si>
+  <si>
+    <t>덕흥동 영산강둔치 축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨단 실내배드민턴장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍영 체육시설단 축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍영 체육시설단지 정구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개 인 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>일 반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>15,000), 공휴일(15,000)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일 06:00~21:00 </t>
-  </si>
-  <si>
-    <t>평일 주(20,000), 야(30,000), 주말 주(30,000), 야(39,000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 종목별 연합회에 사전 문의 후 사용가능</t>
-  </si>
-  <si>
-    <t>http://www.gotaketeam.com/</t>
-  </si>
-  <si>
-    <t>월요일 휴무</t>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>광주광역시 서구 화정로 179번길 62</t>
-  </si>
-  <si>
-    <t>덕흥동 영산강둔치 축구장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨단 실내배드민턴장</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>1회 2시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>1,200원
+월회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 12,000원</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연중운영</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1475,19 +1559,892 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>풍영 체육시설단 축구장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍영 체육시설단지 정구장</t>
+    <t>신암근린공원 테니스장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍암공원 인조잔디 축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안청공원테니스장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">개 안 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>일 반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>회 1시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>2,000원
+월회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1회 1시간 30,000
+야간사용료는 기본사용료의 20% 가산</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성발전센터 수영장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강습반:월 60,000원
+실버수중걷기반:월 60,000원
+자유수영:1시간 3000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회권 13,000원
+60회(4개월) 150,000원
+60회(6개월) 180,000원
+180회(6개월) 410,000원
+210회(5개월) 410,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산 게이트볼장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관 / 개인이용불가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 4시간</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>매일(오전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)6시~12시 / 매일(오후)3시~18시</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일 17:00~21:00/ 토요일 13:00 이후/ 일요일 17:00~21:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관시 평일(15,000), 공휴일(15,000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용흥공원 게이트볼장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운남생활체육시설단지
+야구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연중무휴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료
+대관(무료) : 유선접수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개인 일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1회 1시간 2,000원
+월회원 일반 1회 1시간 30,000원
+야간 사용료는 기본 사용료의 20%가산</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유덕동 족구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개방시간 : 평일 09:00 ~ 22:00, 주말,공휴일 09:00 ~ 22:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전천후게이트볼장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용료 : 무료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>평 일 07:00-22:00
+토·공휴일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00-19:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 월~일 09:00~12:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진월국제테니스장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용시간 : 06:00~22:00(상시)</t>
+  </si>
+  <si>
+    <r>
+      <t>평일 주간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>3,500원
+야간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>4,500원
+주말 및 공휴일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>주간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>6,900원
+야간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>9,000원</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨단 론볼장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨단 생활 체육공원 족구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중(월~금) : 09:00 ~ 18:00/ 주말(토~일) : 09:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t>대관(무료) : 유선접수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남스포츠파크 축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍영체육시설단지 
+정구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>체육행사 
+주 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>40,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>30,000
+야 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>50,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>40,000
+체육행사이외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>주 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>70,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>50,000
+야 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>100,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>70,000
+○기본사용시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하계 월 ~ 일 08:00 ~ 23:00, 동계 월 ~ 일 09:00 ~ 23:00 (연중운영)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월~금요일 : 09:00~22:00 
+토요일 : 09:00~18:00
+첫째,셋째 일요일 휴무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일07:00~22:00/ 토.공휴일09:00~19:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+평일 주간 20,000원
+야간 30,000원
+주말 및 공휴일 주간 30,000원
+야간 39,000원
+월이용료
+(1인 기준)
+어 른 34,500원
+청소년 26,900원
+어린이 19,800원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍암생활체육공원 족구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료/예약접수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동절기 09:00~17:00, 하절기 07:00~19:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 ~ 22:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월~금 09:00~12:00, 18:00~22:00 / 토 13:00~22:00 / 일 09:00~22:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회(2시간) / 1개월
+일 반/월회원 2,000원/30,000원
+어린이/월회원 1,400원/21,000원
+단 체/월회원 1,400원/21,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승촌공원 농구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주 남구 승촌보길 90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>062-603-5346</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승촌공원 축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>※이용료: 월~금: 40,000원
+            토,공유일: 50,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하절기(4월~9월)06:00~09:00/09:00~12:00/13:00~16:00 동절기(10월~익년3월)07:00~10:00/10:00~13:00/14:00~1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승촌게이트볼장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">대관(유료) : 유선접수
+체육행사
+주 간 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>40,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>30,000
+야 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>50,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>40,000
+체육행사이외
+주 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>70,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>50,000
+야 간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>100,000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>70,000
+○기본사용시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1580,6 +2537,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1603,7 +2567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1663,6 +2627,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1851,7 +2830,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1860,7 +2839,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2135,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2152,12 +3131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2173,22 +3152,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2196,19 +3175,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2219,13 +3198,13 @@
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -2236,19 +3215,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2256,19 +3235,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2276,16 +3255,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2296,13 +3275,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -2313,19 +3292,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2336,16 +3315,16 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2353,19 +3332,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2376,10 +3355,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -2390,19 +3369,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2410,16 +3389,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -2430,19 +3409,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2450,19 +3429,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2470,16 +3449,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2487,16 +3466,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2507,16 +3486,16 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2527,13 +3506,13 @@
         <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -2544,19 +3523,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2567,13 +3546,13 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -2587,16 +3566,16 @@
         <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2604,16 +3583,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2621,16 +3600,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2638,19 +3617,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2658,19 +3637,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2678,16 +3657,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2695,16 +3674,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2712,19 +3691,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2732,19 +3711,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2755,13 +3734,13 @@
         <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>28</v>
@@ -2775,16 +3754,16 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2795,13 +3774,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
@@ -2812,16 +3791,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
@@ -2835,16 +3814,16 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2852,13 +3831,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2866,19 +3845,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2889,13 +3868,13 @@
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>29</v>
@@ -2906,13 +3885,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2920,10 +3899,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -2934,13 +3913,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2948,16 +3927,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2965,16 +3944,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2985,16 +3964,16 @@
         <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3002,19 +3981,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3022,19 +4001,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3042,16 +4021,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3059,13 +4038,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>23</v>
@@ -3076,13 +4055,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
@@ -3093,16 +4072,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>41</v>
@@ -3116,10 +4095,10 @@
         <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
@@ -3130,16 +4109,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>73</v>
@@ -3150,16 +4129,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3170,13 +4149,13 @@
         <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>43</v>
@@ -3190,13 +4169,13 @@
         <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>30</v>
@@ -3210,16 +4189,16 @@
         <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3230,13 +4209,13 @@
         <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>2</v>
@@ -3247,19 +4226,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3270,13 +4249,13 @@
         <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>5</v>
@@ -3287,16 +4266,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>47</v>
@@ -3307,19 +4286,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3327,19 +4306,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3347,19 +4326,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3370,13 +4349,13 @@
         <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -3387,13 +4366,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3404,16 +4383,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3421,16 +4400,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3438,16 +4417,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3455,16 +4434,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3472,13 +4451,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3489,13 +4468,13 @@
         <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3506,16 +4485,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3523,16 +4502,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3543,13 +4522,13 @@
         <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>0</v>
@@ -3563,16 +4542,16 @@
         <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3580,19 +4559,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3600,16 +4579,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3617,16 +4596,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3634,13 +4613,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>35</v>
@@ -3651,16 +4630,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>72</v>
@@ -3674,13 +4653,13 @@
         <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3688,36 +4667,39 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>256</v>
+      <c r="B83" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>290</v>
+        <v>431</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>281</v>
+        <v>428</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>275</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3725,19 +4707,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>429</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>193</v>
+        <v>428</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>34</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3745,19 +4727,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3765,19 +4744,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3785,19 +4764,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3805,19 +4784,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3825,19 +4804,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3845,19 +4824,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3865,19 +4844,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3885,16 +4864,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3902,16 +4884,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3919,19 +4904,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3939,19 +4921,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3959,19 +4938,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3979,16 +4958,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3996,16 +4978,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4013,19 +4998,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4033,19 +5015,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4053,16 +5035,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4070,19 +5055,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>330</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4090,16 +5072,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4107,16 +5092,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>307</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4124,16 +5109,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4141,13 +5126,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4155,16 +5143,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>333</v>
+        <v>118</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4172,16 +5157,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4189,16 +5174,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -4209,16 +5191,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>314</v>
+        <v>13</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4226,19 +5211,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4246,19 +5228,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4266,19 +5248,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4286,19 +5268,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4306,16 +5288,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4323,19 +5308,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4343,16 +5325,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>291</v>
+        <v>94</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4360,16 +5345,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4377,16 +5362,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4394,19 +5379,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4414,36 +5396,36 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>377</v>
+      <c r="B122" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4451,36 +5433,36 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>60</v>
+      <c r="B124" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>40</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4488,24 +5470,44 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:F136">
-    <sortCondition ref="B2:B136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F137">
+    <sortCondition ref="B2:B137"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
@@ -4514,12 +5516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4535,29 +5537,29 @@
   <sheetData>
     <row r="1" spans="2:5" s="11" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.5">
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4567,20 +5569,20 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4588,12 +5590,12 @@
         <v>44</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4603,10 +5605,10 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" s="6">
         <v>1000</v>
@@ -4619,20 +5621,20 @@
     </row>
     <row r="13" spans="2:5" ht="45">
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="8">
         <v>400</v>
@@ -4640,7 +5642,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="8">
         <v>400</v>
@@ -4648,12 +5650,12 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -4668,13 +5670,13 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -4687,53 +5689,53 @@
         <v>77</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5">
       <c r="B26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="16.5">
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -4753,7 +5755,7 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -4763,15 +5765,15 @@
     </row>
     <row r="37" spans="2:5" ht="25.5">
       <c r="B37" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -4781,27 +5783,27 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="33">
@@ -4809,41 +5811,41 @@
         <v>74</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15">
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="16.5">
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -4853,23 +5855,23 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="66">
       <c r="B54" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -4882,7 +5884,7 @@
         <v>62</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -4892,7 +5894,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D58" s="6">
         <v>2000</v>
@@ -4905,39 +5907,39 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="16.5">
       <c r="B61" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -4947,45 +5949,45 @@
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="16.5">
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -4995,12 +5997,12 @@
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -5015,285 +6017,460 @@
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="B81" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="B82" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="27">
       <c r="B83" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
+        <v>99</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="B84" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
+        <v>124</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="54">
       <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
+      <c r="C85" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="B86" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="40.5">
       <c r="B87" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <v>430</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="B88" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>426</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="49.5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="108">
       <c r="B90" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="40.5">
+      <c r="B91" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="49.5">
+      <c r="B92" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="165">
+      <c r="B94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="67.5">
+      <c r="B95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5">
+      <c r="B98" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="27">
+      <c r="B100" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="27">
+      <c r="B101" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="40.5">
+      <c r="B102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="27">
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="2:4" ht="16.5">
-      <c r="B92" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="33">
-      <c r="B93" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
-      <c r="B95" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="16.5">
-      <c r="B96" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="16.5">
-      <c r="B105" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="1:4">
       <c r="B107" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
+        <v>119</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="54">
       <c r="B108" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4">
+        <v>404</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="B109" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="B110" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="B111" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="B112" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+        <v>84</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="40.5">
       <c r="B114" s="2" t="s">
-        <v>313</v>
+        <v>108</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>369</v>
+        <v>52</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>111</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>370</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="2" t="s">
-        <v>254</v>
+        <v>46</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
+        <v>420</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="108">
       <c r="B127" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="14.25">
+        <v>171</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="27">
+      <c r="B128" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
       <c r="B129" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="14.25">
+      <c r="B130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="19" t="s">
-        <v>371</v>
+      <c r="C130" s="19" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:E136">
-    <sortCondition ref="B2:B136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E137">
+    <sortCondition ref="B2:B137"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
@@ -5302,7 +6479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
@@ -5314,22 +6491,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +6517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F1"/>
   <sheetViews>
@@ -5355,19 +6532,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/DBMS/통합 문서 1.xlsx
+++ b/DBMS/통합 문서 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\403\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4910B8-C671-4AD8-87B8-CF98DE6811F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8670" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="검색" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
     <sheet name="QnA" sheetId="4" r:id="rId4"/>
     <sheet name="User" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="396">
   <si>
     <t>광주 서구 풍암동 396-19</t>
   </si>
@@ -286,9 +287,6 @@
     <t>동구다목적체육관</t>
   </si>
   <si>
-    <t>인라인스케이트장</t>
-  </si>
-  <si>
     <t>첨단 전천후게이트볼장</t>
   </si>
   <si>
@@ -494,10 +492,6 @@
     <t>용산생활체육시설 인조잔디구장</t>
   </si>
   <si>
-    <t>덕흥동 영산강둔치
-축구장</t>
-  </si>
-  <si>
     <t>동구청소년수련관
 체육관</t>
   </si>
@@ -858,9 +852,6 @@
   </si>
   <si>
     <t>광주광역시 서구 광천동 746-1</t>
-  </si>
-  <si>
-    <t>광주광역시 서구 금화로 240</t>
   </si>
   <si>
     <t>광주광역시 서구 쌍촌동 927-12</t>
@@ -1122,9 +1113,6 @@
       <t>1,000), 청소년(800), 어린이(500)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe.naver.com/chumdanhorse.cafe</t>
   </si>
   <si>
     <t>매일 08:00 - 18:00</t>
@@ -1476,12 +1464,258 @@
     <t>풍영 체육시설단지 정구장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>09:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">오전 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>06:00 ~ 12:00
+오후 15:00 ~ 18:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 4시간
+선수훈련 : 시설이용(주간 1회, 2시간) 500원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중(월~금) : 09:00 ~ 22:00 
+주말(토~일) : 09:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체육행사(50,000)
+비영리체육행사(100,000)
+영리체육행사(200,000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유/무료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.탁구(1층 탁구장 5대)⇒ 강습, 일일(월)이용
+- 이용시간 : 09:00~22:00(상시)
+- 이용료
+1회(2시간) / 1개월 / 3개월
+일 반 5,000원/50,000원/120,000원
+청소년 4,000원/40,000원/90,000원
+- 1개월 강습(이용료+강습료)
+일 반 110,000원(50,000원+60,000원)
+청소년 100,000원(40,000원+60,000원)
+- 3개월 강습(이용료+강습료)
+일 반 300,000원(120,000원+180,000원)
+청소년 270,000원( 90,000원+180,000원)
+2. 배드민턴(2층 다목적관 8면) ⇒ 강습, 일일(월)이용
+- 이용시간 : 월,화,수,금 18:00~22:00
+토,공휴일 09:00~22:00
+- 이용료
+1회(2시간) / 1개월 / 3개월
+일반․청소년 2,000원/30,000원/75,000원
+- 1개월 강습(이용료+강습료)
+일반․청소년 150,000원(30,000원+120,000원)
+- 3개월 강습(이용료+강습료)
+일반․청소년 435,000원(75,000원+360,000원)
+3. 족구(2층 다목적관) ⇒ 일일이용
+- 이용시간 : 목요일 18:00~22:00
+- 이용료
+1회(2시간) : 2,000원(일반․청소년)
+4. 스쿼시(3층 스쿼시장 4면) ⇒ 강습, 일일(월)이용
+- 이용시간 : : 평 일 09:00~14:00, 18:00~22:00
+토요일 13:00~1800
+- 이용료
+1회(2시간) / 1개월 / 3개월
+일 반 7,000원/70,000원/180,000원
+청소년 6,000원/60,000원/150,000원
+- 1개월 강습(이용료+강습료)
+일 반 100,000원(70,000원+30,000원)
+청소년 90,000원(60,000원+30,000원)
+- 3개월 강습(이용료+강습료)
+일 반 270,000원(180,000원+90,000원)
+청소년 240,000원(150,000원+90,000원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">탁구 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 일반(5,000) 청소년(4,000)
+배드민턴 - 2,000
+족구 - 2,000
+스쿼시 - 일반(7,000), 청소년(6,000)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>성일(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4,000), 청소년(3,500), 어린이(3,000)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>정빙 시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> - 11:50 ~ 13:00, 15:40 ~ 16:00, 16:40 ~ 17:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회 : 2시간</t>
+  </si>
+  <si>
+    <t>▶ 이용금액
+- 평일 500,000원 
+- 주말 : 750,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동절기 09:00~17:00
+하절기 07:00~19:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://namgumultigym.co.kr/main/ </t>
+  </si>
+  <si>
+    <t>주중 09:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕흥동 야구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> 09:00 ~ 22:00</t>
+  </si>
+  <si>
+    <t>개방시간 : 평일 09:00 ~ 22:00, 주말,공휴일 09:00 ~ 22:00
+◦ 사용료안내
+체육활동
+체육활동 외
+기 준
+평 일
+토ㆍ공휴일
+비영리 행사
+영리 행사
+30,000원
+40,000원
+120,000원
+240,000원
+2시간
+◦ 이용료 : 유료(서구 체육시설 관리운영조례 의거)
+- 운동장 사용자는 시설물의 운영규정 및 이용수칙, 허가조건 등을 지켜야 합니다.
+- 잔디 보호를 위하여 차량, 오토바이, 자전거, 전동킥보드, 애완동물 등 출입을 금지합니다.
+- 운동장 내 흡연, 화기사용 및 취사, 골프연습 등의 행위를 금지합니다.
+- 음식물 반입은 안되며, 쓰레기는 규격봉투를 사용하시기 바랍니다.
+- 반드시 운동화를 착용하고 이용하여 주십시오.
+- 고의 또는 과실로 인한 시설물 훼손의 경우 원상복구 또는 변상하여야 합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕흥동 영산강둔치
+축구장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사용료안내
+체육활동
+체육활동 외
+기 준
+평 일
+토ㆍ공휴일
+비영리 행사
+영리 행사
+30,000원
+40,000원
+120,000원
+240,000원
+2시간
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용료 : 유료(서구 체육시설 관리운영조례 의거)
+- 운동장 사용자는 시설물의 운영규정 및 이용수칙, 허가조건 등을 지켜야 합니다.
+- 잔디 보호를 위하여 차량, 오토바이, 자전거, 전동킥보드, 애완동물 등 출입을 금지합니다.
+- 운동장 내 흡연, 화기사용 및 취사, 골프연습 등의 행위를 금지합니다.
+- 음식물 반입은 안되며, 쓰레기는 규격봉투를 사용하시기 바랍니다.
+- 반드시 운동화를 착용하고 이용하여 주십시오.
+- 고의 또는 과실로 인한 시설물 훼손의 경우 원상복구 또는 변상하여야 합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">수영 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>- 평일(06:00 ~ 21:00), 토요일(06:00 ~ 18:00), 일,공휴일(09:00 ~ 18:00)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성 인 60,000
+(1개월)
+청소년 45,000
+(1개월)
+어린이 35,000
+(1개월)
+1회(1시간)성인 4,000
+청소년 3,500
+어린이 3,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1574,6 +1808,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1592,12 +1848,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,9 +1917,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1845,7 +2123,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1854,7 +2132,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2129,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2146,12 +2424,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B125" sqref="B2:B125"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F105" sqref="F104:F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2167,22 +2445,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2190,19 +2468,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2213,13 +2491,13 @@
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -2230,19 +2508,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2250,19 +2528,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2270,16 +2548,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2290,13 +2568,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>37</v>
@@ -2307,19 +2585,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2330,16 +2608,16 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2347,19 +2625,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2370,10 +2648,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -2384,19 +2662,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2404,16 +2682,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -2424,19 +2702,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2444,19 +2722,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2464,16 +2742,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2481,16 +2762,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2501,16 +2782,16 @@
         <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2521,13 +2802,13 @@
         <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>18</v>
@@ -2538,19 +2819,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2561,13 +2842,13 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -2581,16 +2862,16 @@
         <v>77</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2598,16 +2879,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2615,16 +2896,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2632,19 +2913,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2652,19 +2933,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2672,16 +2953,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2689,16 +2970,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2706,19 +2987,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2726,19 +3007,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2749,13 +3030,13 @@
         <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>28</v>
@@ -2769,16 +3050,16 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2789,13 +3070,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>27</v>
@@ -2806,16 +3087,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
@@ -2829,16 +3110,16 @@
         <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2846,13 +3127,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2860,19 +3141,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2883,13 +3164,13 @@
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>29</v>
@@ -2900,13 +3181,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2914,10 +3195,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>14</v>
@@ -2928,13 +3209,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2942,16 +3223,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2959,16 +3240,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2979,16 +3260,16 @@
         <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2996,19 +3277,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3016,19 +3297,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3036,16 +3317,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3053,13 +3334,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>23</v>
@@ -3070,13 +3351,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
@@ -3087,16 +3368,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>41</v>
@@ -3110,10 +3391,10 @@
         <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>15</v>
@@ -3124,16 +3405,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>73</v>
@@ -3144,16 +3425,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3164,13 +3445,13 @@
         <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>43</v>
@@ -3184,13 +3465,13 @@
         <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>30</v>
@@ -3204,16 +3485,16 @@
         <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3224,13 +3505,13 @@
         <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>2</v>
@@ -3241,19 +3522,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3264,13 +3545,13 @@
         <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>5</v>
@@ -3281,16 +3562,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>47</v>
@@ -3301,19 +3582,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3321,19 +3602,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3341,19 +3622,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3364,13 +3645,13 @@
         <v>53</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>21</v>
@@ -3381,13 +3662,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
@@ -3398,16 +3679,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3415,16 +3696,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3432,16 +3713,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3449,16 +3730,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3466,13 +3747,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3483,13 +3764,13 @@
         <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -3500,16 +3781,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3517,16 +3798,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3537,13 +3818,13 @@
         <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>0</v>
@@ -3557,16 +3838,16 @@
         <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3574,19 +3855,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3594,16 +3875,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3611,16 +3892,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3628,13 +3909,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>35</v>
@@ -3645,16 +3926,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>72</v>
@@ -3668,13 +3949,13 @@
         <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3682,19 +3963,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3702,16 +3983,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3719,16 +4000,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>34</v>
@@ -3742,13 +4023,13 @@
         <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>7</v>
@@ -3762,13 +4043,13 @@
         <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>75</v>
@@ -3782,16 +4063,16 @@
         <v>31</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3799,19 +4080,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3819,19 +4100,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3842,16 +4123,16 @@
         <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3862,13 +4143,13 @@
         <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>12</v>
@@ -3879,13 +4160,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>3</v>
@@ -3899,10 +4180,10 @@
         <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>4</v>
@@ -3913,19 +4194,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3933,19 +4214,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3956,13 +4237,13 @@
         <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -3973,50 +4254,38 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>11</v>
@@ -4030,13 +4299,13 @@
         <v>50</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>1</v>
@@ -4047,16 +4316,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4064,19 +4333,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4087,13 +4356,13 @@
         <v>56</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4101,16 +4370,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4118,16 +4387,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4135,13 +4404,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4152,13 +4421,13 @@
         <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4166,13 +4435,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>24</v>
@@ -4183,13 +4452,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>13</v>
@@ -4203,16 +4472,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4223,16 +4492,16 @@
         <v>42</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4243,16 +4512,16 @@
         <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4263,16 +4532,16 @@
         <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4280,19 +4549,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4300,16 +4569,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4320,16 +4589,16 @@
         <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4337,16 +4606,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4354,16 +4623,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4371,16 +4640,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4388,19 +4657,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4408,16 +4677,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4425,19 +4694,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4445,16 +4714,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4465,13 +4734,13 @@
         <v>60</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>40</v>
@@ -4485,20 +4754,20 @@
         <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:F136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F136">
     <sortCondition ref="B2:B136"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4508,12 +4777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4522,65 +4791,80 @@
     <col min="2" max="2" width="46" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4588,29 +4872,39 @@
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D11" s="6">
         <v>1000</v>
@@ -4625,46 +4919,64 @@
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="D15" s="8">
         <v>400</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="D16" s="8">
         <v>400</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4673,22 +4985,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="24">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C20" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4696,6 +5014,12 @@
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C22" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="49.5">
       <c r="A23" s="2"/>
@@ -4703,61 +5027,82 @@
         <v>77</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>244</v>
+        <v>388</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>151</v>
+      <c r="B27" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4781,7 +5126,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4793,16 +5138,16 @@
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4814,31 +5159,31 @@
     <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="33">
@@ -4847,46 +5192,46 @@
         <v>74</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4898,25 +5243,25 @@
     <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="66">
       <c r="A54" s="2"/>
       <c r="B54" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4931,7 +5276,7 @@
         <v>62</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4943,7 +5288,7 @@
     <row r="58" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D58" s="6">
         <v>2000</v>
@@ -4958,32 +5303,32 @@
     <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4995,40 +5340,40 @@
     <row r="65" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5040,13 +5385,13 @@
     <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5064,31 +5409,31 @@
     <row r="76" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5103,19 +5448,19 @@
     <row r="82" spans="1:4">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5130,7 +5475,7 @@
         <v>78</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5143,19 +5488,19 @@
     <row r="88" spans="1:4" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="33">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5173,10 +5518,10 @@
     <row r="92" spans="1:4" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5188,13 +5533,13 @@
     <row r="94" spans="1:4">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5206,19 +5551,16 @@
     <row r="97" spans="1:4">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5230,16 +5572,16 @@
     <row r="101" spans="1:4" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5251,19 +5593,19 @@
     <row r="104" spans="1:4">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5275,19 +5617,19 @@
     <row r="108" spans="1:4">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5311,16 +5653,16 @@
     <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5329,49 +5671,49 @@
         <v>46</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="10"/>
       <c r="B122" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="10"/>
       <c r="B123" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5386,21 +5728,24 @@
         <v>45</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:E136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E136">
     <sortCondition ref="B2:B136"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1" display="http://namgumultigym.co.kr/main/" xr:uid="{60364E1B-E9DF-4E77-8126-FCEB8CE6B31A}"/>
+  </hyperlinks>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
@@ -5412,22 +5757,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F1"/>
   <sheetViews>
@@ -5453,19 +5798,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/DBMS/통합 문서 1.xlsx
+++ b/DBMS/통합 문서 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Sports_Project\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4910B8-C671-4AD8-87B8-CF98DE6811F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="검색" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="460">
   <si>
     <t>광주 서구 풍암동 396-19</t>
   </si>
@@ -45,9 +44,6 @@
   </si>
   <si>
     <t>광주 광산구 산정동 산 105-1</t>
-  </si>
-  <si>
-    <t>광주 광산구 안청동 736-1</t>
   </si>
   <si>
     <t>광주 북구 서림로 10</t>
@@ -130,9 +126,6 @@
 체육관</t>
   </si>
   <si>
-    <t>광주 광산구 쌍암동 653-1</t>
-  </si>
-  <si>
     <t>광주 광산구 금봉로 22-41</t>
   </si>
   <si>
@@ -209,9 +202,6 @@
     <t>금호 게이트볼장</t>
   </si>
   <si>
-    <t>안청공원테니스장</t>
-  </si>
-  <si>
     <t>하남스포츠파크 축구장</t>
   </si>
   <si>
@@ -522,9 +512,6 @@
     <t>광주광역시장애인국민체육센터</t>
   </si>
   <si>
-    <t>쌍암공원 인조잔디 축구장</t>
-  </si>
-  <si>
     <t>운남생활체육시설단지
 야구장</t>
   </si>
@@ -821,9 +808,6 @@
     <t>마재게이트볼장</t>
   </si>
   <si>
-    <t>신암근린공원 테니스장</t>
-  </si>
-  <si>
     <t>상무시민공원 배드민턴장</t>
   </si>
   <si>
@@ -918,10 +902,6 @@
   </si>
   <si>
     <t>배트민턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테니스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1161,218 +1141,17 @@
     <t>https://cafe.naver.com/anarcheryfield</t>
   </si>
   <si>
-    <r>
-      <t>06:00-22:30(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월말까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF141414"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>평일 09:00 ~ 23:30
 공휴일 09:00 ~ 11:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>주중(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>20,000), 주말(30,000)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>북구 건강복지타운
 (우산수영장)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://bgsc.kr/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">월~금요일 : 06:00~21:00
-토요일 : 06:00~18:00
-일요일(2, 4주), 공휴일 : 09:00~18:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>첫번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세번째</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일요일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>명절연휴</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>주중(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>10,000), 주말(15,000)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bitown.or.kr/home/utilization.php?mid=41</t>
-  </si>
-  <si>
-    <t>전화문의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1710,12 +1489,1419 @@
 어린이 3,000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>상시개방</t>
+  </si>
+  <si>
+    <t>무료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개방시간 : 평일 09:00 ~ 22:00, 주말,공휴일 09:00 ~ 22:00</t>
+  </si>
+  <si>
+    <t>평 일
+토ㆍ공휴일
+비영리 행사
+영리 행사
+30,000원
+40,000원
+120,000원
+240,000원
+2시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용료 유료 방문 및 전화접수 필수
+부대시설 : 화장실
+수용인원 : 60 명
+면적 : 12,150㎡ / 축구장 3면(90m×45m), 천연잔디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00~17:00, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 07:00~19:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>예약 접수로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 선착순으로 선정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">일일권 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 4,000
+한달권 : 40,000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>실설내에 배드민턴샵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 배치</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06:00-22:30(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월말까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF141414"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프연습장 비용 : 1일권 14,000원, 
+1개월 150,000원(1일1회 70분)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설 : 샤워실, 주차장
+시설정보가 잘나와있는 블로그
+https://blog.naver.com/p2521/222192212041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>동호인들 한정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 24시간개방
+일반인은 문의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이용료 전화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 문의, 현장 문의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>문화근린공원 내부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시설
+시설 : 화장실, 주차장</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">시설 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 화장실, 주차장
+체육시설 : 배드민턴장, 게이트볼장, 축구장, 운동시설구비</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시간 : 06:00 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>주중(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>20,000), 주말(30,000)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">광주광역시 체육시설 예약시스템 홈페이지에서 예약
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>https://bukgu.gwangju.kr/index.es?sid=c1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화체육과 체육시설팀 062-360-7029
+를 통해 누구나 무료로 이용가능
+시설 : 관리실 1개동, 장애인용 이동식화장실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하절기(5월~9월) : 06:30 ~ 19:00
+동절기(10월~4월) : 07:30 ~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용료
+체육행사 : 50,000원
+(1회 2시간 기준)
+비영리행사 : 100,000원
+(1회 2시간 기준)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>수용인원 : 2,000명
+시설 : 주차장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 화장실</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중(월~금) : 09:00 ~ 20:00 /
+ 주말(토~일) : 09:00 ~ 20:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간1일 사용료(2시간)
+성인 : 3,500 청소년 : 2,500 어린이 :1,800
+주간 1월 사용료(30일)
+성인 : 30,000 청소년 : 21,000 어린이 : 15,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 연면적 2,442㎡
+수용인원 : 100명
+부대시설 : 테니스코트 4면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">월~금요일 : 06:00~21:00
+토요일 : 06:00~18:00
+일요일(2, 4주), 공휴일 : 09:00~18:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첫번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일요일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명절연휴</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영/1개월/성인
+60,000원
+수영/1개월/청소년
+50,000원
+수영/1개월/어린이
+40,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주중(월~금) : 06:00 ~ 22:00(단, 프로그램에 따라 시간이 다름)
+ - 주말(토~일) 및 공휴일 : 운영안함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대관(유료) : 유선 및 방문접수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 체육관 786㎡(연면적 2,246㎡), 지상3층 규모
+수용인원 : 체육관 1500명
+부대시설 : 헬스장, 다목적실, 요가실 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하절기(4 ~ 10월) 
+- 2시간 기준(2시간 간격 12:00~13:00 점심시간)
+ 06:00 ~ 19:00
+동절기(11~3월)
+08:00 ~ 17:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>주중(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10,000), 주말(15,000)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주중 및 주말(월~일) : 06:00 ~ 23:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1일 사용 : 8시간 기준
+체육행사
+1일 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>50,000
+토·공휴일 및 야간 사용시는
+주간사용료의 100분의 50을
+각각 가산
+체육행사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영리
+1일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>200,000
+비영리
+1일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>100,000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 부지 1,355㎡(연면적 1,784㎡), 2층·3층(체육관,다목적실)
+수용인원 : 체육관 700명
+부대시설 : 다목적 체육관, 강당 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">평일 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 06:00 ~ 21:00
+토요일 : 06:00 ~ 18:00
+일요일 : 09:00 ~ 18:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4F 배드민턴체육관, 금융복지상담센터, 건강강좌, 광산구생활체육회, 체육용품점
+3F 헬스장, 태권도장, GX룸, 다목적실
+2F 안내데스크, 수영장, 열린공간휴게실
+1F 광산구시설관리공단, 어린이집, 커피숍
+B1F 지하주차장, 기계실, 전기실, 중앙제어실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  주중(월~금) : 06:00 ~ 21:00
+  주말(토) : 06:00 ~ 18:00
+  주말(일) : 09:00 ~ 18:00
+  정기휴관 : 매월 1,3주 일요일, 기타 지정 휴관일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 일반인 : 4,000
+군경 · 청소년 : 3,500
+어린이 : 3,000
+월회원 (1개월권)
+개인 일반인 : 56,000
+군경 · 청소년 : 47,500
+어린이 : 36,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>안내데스크에서 등록후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이용가능</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~17:00(월~금)
+ / 수질 정화시간 (12:00~13:00)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> 월권 강습료(40,000원), 월권 자유수영(35,000원), 일권(3,000원)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bitown.or.kr/home/utilization.php?mid=41</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부시설 : 식당 1식 : 2,000
+목욕탕 1회 : 2,000
+물리치료실 1회 : 1,500
+노래방 1곡 : 200
+당구장 개인/1시간 : 1,000
+탁구장 개인/1시간 : 1,000
+헬스장 1개월 : 10,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bitown.or.kr/home/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06:00~18:00 (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="NotoKR"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="NotoKR"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약시 문의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광주광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체육시설</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈페이지에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> https://bukgu.gwangju.kr/index.es?sid=c1"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 오전: 06:00 ~ 12:00 / 매일 오후 15:00~ 18:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대 시설 : 주차장, 화장실
+동구청 인권청년과 체육진흥계(608-2434)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동절기 09:00~18:00, 하절기 07:00~20:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>예약 접수로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 선착순으로 선정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 440㎡
+수용인원 : 농구장1면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연중 가능</t>
+  </si>
+  <si>
+    <t>면적 : 360㎡
+수용인원 : 배구장 1면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 870㎡
+수용인원 : 배드민턴코트 4면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) : 09:00~17:00 
+/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>) : 07:00~19:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 27,260㎡ / 축구장 1면(68m×110m), 인조잔디
+수용인원 : 40명
+부대시설 : 주차장, 화장실, 트랙 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 870㎡
+수용인원 : 테니스장 3면
+부대시설 : 화장실</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>(11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>~3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) : 10:00~18:00 
+/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하절기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>~10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) : 10:00~21:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토요일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공휴일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 10:00~18:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장안전 수칙 준수
+현장 스포츠 클라이밍교실 운영 
+운영 방침에 따라 시간표가 변경될 수 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동절기 09:00~17:00, 하절기 07:00~19:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : 06:00 ~ 22:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다목적 체육관 이용요금
+1일 140,000원 
+4시간: 80,000원
+ 야간 : 80,000원 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.seogu.gwangju.kr/intro/intro_20201218.html</t>
+  </si>
+  <si>
+    <t>http://www.seomunsen.or.kr/index.php</t>
+  </si>
+  <si>
+    <t>광주 월드컵 경기장 인근에 위치하는데
+ 기념관인지 양궁장인지 알수가 없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 입회비 : 300,000
+월 회비 : 30,000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>입회를 위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 심사과정이 있음</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연중운영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 면적 : 12,000㎡(2면, 토사구장 2면)
+수용인원 : 야외운동장 100명
+부대시설 : 주차장 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00~12:00, 18:00~22:00 
+/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00~22:00 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00~22:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용료
+1회(2시간) / 1개월
+일 반/월회원 2,000원/30,000원
+어린이/월회원 1,400원/21,000원
+단 체/월회원 1,400원/21,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적 : 19,233㎡
+수용인원 : 620명
+부대시설 : 주차장 , 농구장 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대시설 : 면적 2029㎡로 실외코트 1면,
+ 실내인조잔디 1면, 락커룸, 탕비실 등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1830,6 +3016,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="NotoKR"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1856,7 +3067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,6 +3145,33 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2123,7 +3361,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2132,7 +3370,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2407,7 +3645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2424,12 +3662,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F105" sqref="F104:F105"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2445,22 +3683,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2468,19 +3706,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2488,19 +3726,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2508,19 +3746,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2528,19 +3766,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2548,16 +3786,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2565,19 +3803,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2585,19 +3823,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2605,19 +3843,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2625,19 +3863,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2645,16 +3883,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2662,19 +3900,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2682,16 +3920,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -2702,19 +3940,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2722,19 +3960,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2742,19 +3980,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2762,16 +4000,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2779,19 +4017,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2799,19 +4037,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2819,19 +4057,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2839,19 +4077,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2859,19 +4097,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2879,16 +4117,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2896,16 +4134,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2913,19 +4151,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2933,19 +4171,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2953,16 +4191,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2970,16 +4208,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2987,19 +4225,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3007,19 +4245,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3027,19 +4265,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3047,19 +4285,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3067,19 +4305,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3087,19 +4325,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3107,19 +4345,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3127,13 +4365,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3141,19 +4379,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3161,19 +4399,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3181,13 +4419,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3195,13 +4433,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3209,13 +4447,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3223,16 +4461,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3240,16 +4478,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3257,19 +4495,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3277,19 +4515,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3297,19 +4535,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3317,16 +4555,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3334,16 +4572,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3351,16 +4589,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3368,19 +4606,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3388,16 +4626,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3405,19 +4643,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3425,16 +4663,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3442,19 +4680,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3462,19 +4700,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3482,19 +4720,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3502,16 +4740,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>2</v>
@@ -3522,19 +4760,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3542,16 +4780,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>5</v>
@@ -3562,19 +4800,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3582,19 +4820,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3602,19 +4840,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3622,19 +4860,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3642,19 +4880,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3662,16 +4900,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3679,16 +4917,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3696,16 +4934,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3713,16 +4951,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3730,16 +4968,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3747,13 +4985,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3761,19 +4999,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3781,16 +5019,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3798,16 +5036,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3815,16 +5053,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>0</v>
@@ -3835,19 +5073,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3855,19 +5093,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3875,16 +5113,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3892,16 +5130,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3909,16 +5147,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3926,19 +5164,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3946,16 +5184,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3963,76 +5201,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4040,19 +5221,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4060,19 +5241,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4080,19 +5261,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4100,19 +5281,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4120,19 +5301,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4140,19 +5321,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4160,13 +5341,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>3</v>
@@ -4177,13 +5358,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>4</v>
@@ -4194,19 +5375,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4214,19 +5395,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4234,19 +5415,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4254,16 +5435,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4276,19 +5457,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4296,16 +5477,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>1</v>
@@ -4316,16 +5497,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4333,19 +5514,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4353,16 +5534,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4370,16 +5551,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4387,16 +5568,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4404,13 +5585,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4418,16 +5599,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4435,16 +5616,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4452,19 +5633,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4472,16 +5653,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4489,19 +5670,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4509,19 +5690,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4529,19 +5710,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4549,19 +5730,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4569,16 +5750,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4586,19 +5767,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4606,16 +5787,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4623,16 +5804,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4640,16 +5821,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4657,19 +5838,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4677,16 +5858,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4694,19 +5875,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4714,16 +5895,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4731,19 +5912,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4751,23 +5932,23 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F136">
+  <sortState ref="B2:F136">
     <sortCondition ref="B2:B136"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4777,12 +5958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C20:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4798,113 +5979,113 @@
   <sheetData>
     <row r="1" spans="1:5" s="11" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="40.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D11" s="6">
         <v>1000</v>
@@ -4913,645 +6094,914 @@
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D15" s="8">
         <v>400</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D16" s="8">
         <v>400</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="24">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="49.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27">
       <c r="A27" s="2"/>
       <c r="B27" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="25.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="121.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="33">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
+        <v>341</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="40.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>393</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>397</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16.5">
+        <v>294</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="27">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>401</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="40.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="67.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="54">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="66">
+        <v>285</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="81">
       <c r="A54" s="2"/>
       <c r="B54" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>352</v>
+        <v>410</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="40.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16.5">
+        <v>64</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="81">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>415</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>416</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="135">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D58" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="81">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="94.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16.5">
+        <v>141</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="33">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="94.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>284</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="27">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>165</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>125</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>239</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="27">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>251</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5">
+        <v>250</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="40.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>152</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="40.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="40.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>256</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>247</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="54">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>240</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="27">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="40.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="67.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="49.5">
+    </row>
+    <row r="86" spans="1:5" ht="49.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="1:4" ht="16.5">
+    <row r="88" spans="1:5" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="33">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="33">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5560,184 +7010,186 @@
     <row r="99" spans="1:4">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="10"/>
       <c r="B122" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="10"/>
       <c r="B123" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E136">
+  <sortState ref="B2:E136">
     <sortCondition ref="B2:B136"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" display="http://namgumultigym.co.kr/main/" xr:uid="{60364E1B-E9DF-4E77-8126-FCEB8CE6B31A}"/>
+    <hyperlink ref="E22" r:id="rId1" display="http://namgumultigym.co.kr/main/"/>
+    <hyperlink ref="E61" r:id="rId2"/>
+    <hyperlink ref="E62" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
@@ -5745,7 +7197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
@@ -5757,22 +7209,22 @@
   <sheetData>
     <row r="1" spans="2:7" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +7235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:F1"/>
   <sheetViews>
@@ -5798,19 +7250,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>216</v>
-      </c>
-      <c r="F1" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
